--- a/src/zexcel_demo_template.w3mi.data.xlsx
+++ b/src/zexcel_demo_template.w3mi.data.xlsx
@@ -1,42 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadfasdf\Desktop\abap2xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB13E4FB-6238-4533-90BC-CBBF39113EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE2C7D3-1EA9-4758-8348-2A0C66AA11A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5385" yWindow="3645" windowWidth="21600" windowHeight="10065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="2445" windowWidth="21525" windowHeight="10410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="line1">Sheet1!$10:$10</definedName>
-    <definedName name="subtable1">Sheet1!$10:$11</definedName>
     <definedName name="table1">Sheet1!$5:$5</definedName>
+    <definedName name="table2">Sheet1!$10:$11</definedName>
+    <definedName name="table3">Sheet2!$5:$5</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+  <si>
+    <t>CARRID</t>
+  </si>
+  <si>
+    <t>CONNID</t>
+  </si>
+  <si>
+    <t>FLDATE</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
   <si>
     <t>[date]</t>
   </si>
@@ -47,49 +59,28 @@
     <t>[user]</t>
   </si>
   <si>
-    <t>person</t>
-  </si>
-  <si>
-    <t>salary</t>
-  </si>
-  <si>
     <t>[person]</t>
   </si>
   <si>
     <t>[salary]</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>[total]</t>
   </si>
   <si>
-    <t>CARRID</t>
-  </si>
-  <si>
-    <t>CONNID</t>
-  </si>
-  <si>
-    <t>FLDATE</t>
-  </si>
-  <si>
-    <t>PRICE</t>
-  </si>
-  <si>
-    <t>[CARRID]</t>
-  </si>
-  <si>
-    <t>[CONNID]</t>
-  </si>
-  <si>
-    <t>[FLDATE]</t>
-  </si>
-  <si>
-    <t>[PRICE]</t>
-  </si>
-  <si>
-    <t>subtotal</t>
+    <t>[carrid]</t>
+  </si>
+  <si>
+    <t>[connid]</t>
+  </si>
+  <si>
+    <t>[fldate]</t>
+  </si>
+  <si>
+    <t>[price]</t>
+  </si>
+  <si>
+    <t>subtotal [carrid]:</t>
   </si>
 </sst>
 </file>
@@ -99,7 +90,7 @@
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,25 +106,25 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59996337778862885"/>
-        <bgColor indexed="64"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9948118533890809E-2"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="2" tint="-9.985656300546282E-2"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -209,9 +200,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -229,13 +218,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -293,71 +288,71 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -512,7 +507,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -522,51 +519,51 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -576,37 +573,91 @@
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="13" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="12" t="s">
         <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B11:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A43F91-CEEF-48E9-A659-7E1C9EC0B0E1}">
+  <dimension ref="B2:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>